--- a/Design/Data/MainSheet.xlsx
+++ b/Design/Data/MainSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Classes/Fall 24/Aircraft-Design-USC-Fall24/Aircraft-Design-USC-Fall24/Design/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/Design/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104847D15F67645ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857C1A38-DC47-4F53-AB9A-3F1D61AB0269}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC104847D15F67645ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F797F54-1D51-4C0F-A34A-7394EBC8B87E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7788" yWindow="1800" windowWidth="15360" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>AT5220A 20-25CC</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airfoil </t>
+  </si>
+  <si>
+    <t>Selig 1223</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>xfoil</t>
   </si>
 </sst>
 </file>
@@ -390,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -420,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -431,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -442,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -453,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -467,13 +482,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <f>SUM(B2*C2,B3*C3,B4*C4,B5*C5,B6*C6)</f>
         <v>12034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
